--- a/reports/TPS_report.xlsx
+++ b/reports/TPS_report.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sales Summary" sheetId="1" r:id="rId1"/>
+    <sheet name="Product Summary" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="363">
   <si>
     <t>extended amount</t>
   </si>
@@ -1088,6 +1089,21 @@
   </si>
   <si>
     <t>shirt</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>NOT APPLICABLE</t>
+  </si>
+  <si>
+    <t>count</t>
   </si>
 </sst>
 </file>
@@ -1445,13 +1461,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C732"/>
+  <dimension ref="A1:G732"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1461,8 +1477,14 @@
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1472,8 +1494,17 @@
       <c r="C2">
         <v>2063</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="E2" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F2">
+        <v>510270</v>
+      </c>
+      <c r="G2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>355</v>
@@ -1481,8 +1512,17 @@
       <c r="C3">
         <v>140</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="E3" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="F3">
+        <v>510.27</v>
+      </c>
+      <c r="G3">
+        <v>22.816</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>356</v>
@@ -1491,7 +1531,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1502,7 +1542,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:7">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>357</v>
@@ -1511,7 +1551,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1522,7 +1562,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:7">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>355</v>
@@ -1531,7 +1571,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1542,7 +1582,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:7">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>355</v>
@@ -1551,7 +1591,7 @@
         <v>-105</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:7">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>356</v>
@@ -1560,7 +1600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1571,7 +1611,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:7">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>357</v>
@@ -1580,7 +1620,7 @@
         <v>-165</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -1591,7 +1631,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:7">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>355</v>
@@ -1600,7 +1640,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:7">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>357</v>
@@ -8995,4 +9035,102 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B4">
+        <v>118356</v>
+      </c>
+      <c r="C4">
+        <v>505.7948717948718</v>
+      </c>
+      <c r="D4">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B5">
+        <v>115017</v>
+      </c>
+      <c r="C5">
+        <v>508.9247787610619</v>
+      </c>
+      <c r="D5">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B6">
+        <v>139008</v>
+      </c>
+      <c r="C6">
+        <v>516.7583643122676</v>
+      </c>
+      <c r="D6">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B7">
+        <v>137889</v>
+      </c>
+      <c r="C7">
+        <v>508.8154981549815</v>
+      </c>
+      <c r="D7">
+        <v>271</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>